--- a/test-data/res/xcms_summary_grp.xlsx
+++ b/test-data/res/xcms_summary_grp.xlsx
@@ -21,18 +21,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SE mean</t>
+  </si>
+  <si>
+    <t>t_crit</t>
+  </si>
+  <si>
+    <t>Lower 95% CI</t>
+  </si>
+  <si>
+    <t>Upper 95% CI</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,11 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,82 +377,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.078936155590749</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.003001191976006652</v>
+        <v>1.07893615559075</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.00300119197600665</v>
       </c>
       <c r="E2">
+        <v>3.18244630528371</v>
+      </c>
+      <c r="F2">
         <v>1.06938502327526</v>
       </c>
-      <c r="F2">
-        <v>1.088487287906239</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+      <c r="G2">
+        <v>1.08848728790624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.94277037991836</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.004592549614844693</v>
+        <v>98.9427703799184</v>
       </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00459254961484469</v>
       </c>
       <c r="E3">
-        <v>98.92815483736476</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>98.95738592247196</v>
+        <v>98.9281548373648</v>
+      </c>
+      <c r="G3">
+        <v>98.957385922472</v>
       </c>
     </row>
   </sheetData>
@@ -444,82 +459,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.068933378195505</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.006201214018520464</v>
+        <v>1.06893337819551</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.00620121401852046</v>
       </c>
       <c r="E2">
-        <v>1.049198347553991</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F2">
-        <v>1.088668408837019</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+        <v>1.04919834755399</v>
+      </c>
+      <c r="G2">
+        <v>1.08866840883702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.96343259575475</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.004546422525101175</v>
+        <v>98.9634325957548</v>
       </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00454642252510117</v>
       </c>
       <c r="E3">
-        <v>98.94896385018748</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>98.97790134132202</v>
+        <v>98.9489638501875</v>
+      </c>
+      <c r="G3">
+        <v>98.977901341322</v>
       </c>
     </row>
   </sheetData>
@@ -529,82 +541,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.079580624121154</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.003454157990746646</v>
+        <v>1.07958062412115</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.00345415799074665</v>
       </c>
       <c r="E2">
-        <v>1.068587951785636</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F2">
-        <v>1.090573296456671</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+        <v>1.06858795178564</v>
+      </c>
+      <c r="G2">
+        <v>1.09057329645667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>98.9402113519141</v>
       </c>
-      <c r="C3">
-        <v>0.004901101139359418</v>
-      </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00490110113935942</v>
       </c>
       <c r="E3">
-        <v>98.92461386070133</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>98.95580884312687</v>
+        <v>98.9246138607013</v>
+      </c>
+      <c r="G3">
+        <v>98.9558088431269</v>
       </c>
     </row>
   </sheetData>
@@ -614,82 +623,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.074989264907118</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.008007309110793049</v>
+        <v>1.07498926490712</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.00800730911079305</v>
       </c>
       <c r="E2">
+        <v>3.18244630528371</v>
+      </c>
+      <c r="F2">
         <v>1.04950643361221</v>
       </c>
-      <c r="F2">
-        <v>1.100472096202026</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+      <c r="G2">
+        <v>1.10047209620203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.98336821434805</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>98.983368214348</v>
+      </c>
+      <c r="D3">
         <v>0.00989181469356447</v>
       </c>
-      <c r="D3">
-        <v>3.182446305283708</v>
-      </c>
       <c r="E3">
-        <v>98.95188804522397</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>99.01484838347213</v>
+        <v>98.951888045224</v>
+      </c>
+      <c r="G3">
+        <v>99.0148483834721</v>
       </c>
     </row>
   </sheetData>
@@ -699,82 +705,79 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.090155199712531</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.01972537160360743</v>
+        <v>1.09015519971253</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.0197253716036074</v>
       </c>
       <c r="E2">
-        <v>1.027380263732282</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F2">
-        <v>1.152930135692779</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+        <v>1.02738026373228</v>
+      </c>
+      <c r="G2">
+        <v>1.15293013569278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.96438837107719</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.004415187200176615</v>
+        <v>98.9643883710772</v>
       </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00441518720017661</v>
       </c>
       <c r="E3">
-        <v>98.95033727488486</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>98.97843946726952</v>
+        <v>98.9503372748849</v>
+      </c>
+      <c r="G3">
+        <v>98.9784394672695</v>
       </c>
     </row>
   </sheetData>
@@ -784,81 +787,78 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.091469248030912</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.04101456393396264</v>
+        <v>1.09146924803091</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.0410145639339626</v>
       </c>
       <c r="E2">
+        <v>3.18244630528371</v>
+      </c>
+      <c r="F2">
         <v>0.96094260057645</v>
       </c>
-      <c r="F2">
-        <v>1.221995895485374</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+      <c r="G2">
+        <v>1.22199589548537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.96691474830524</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.005191741293806209</v>
+        <v>98.9669147483052</v>
       </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00519174129380621</v>
       </c>
       <c r="E3">
-        <v>98.95039231040678</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
+        <v>98.9503923104068</v>
+      </c>
+      <c r="G3">
         <v>98.9834371862037</v>
       </c>
     </row>
@@ -869,82 +869,79 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.092202681451415</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.009829062812355073</v>
+        <v>1.09220268145142</v>
       </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.00982906281235507</v>
       </c>
       <c r="E2">
-        <v>1.060922216819834</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F2">
-        <v>1.123483146082996</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+        <v>1.06092221681983</v>
+      </c>
+      <c r="G2">
+        <v>1.123483146083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.96662942923807</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.005428270338004982</v>
+        <v>98.9666294292381</v>
       </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00542827033800498</v>
       </c>
       <c r="E3">
-        <v>98.94935425035681</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>98.98390460811933</v>
+        <v>98.9493542503568</v>
+      </c>
+      <c r="G3">
+        <v>98.9839046081193</v>
       </c>
     </row>
   </sheetData>
@@ -954,82 +951,79 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>1.09728089609359</v>
       </c>
-      <c r="C2">
-        <v>0.01052457654369319</v>
-      </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.0105245765436932</v>
       </c>
       <c r="E2">
-        <v>1.063786996357438</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F2">
-        <v>1.130774795829742</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+        <v>1.06378699635744</v>
+      </c>
+      <c r="G2">
+        <v>1.13077479582974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.96986185214757</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>98.9698618521476</v>
+      </c>
+      <c r="D3">
         <v>0.00612865426683056</v>
       </c>
-      <c r="D3">
-        <v>3.182446305283708</v>
-      </c>
       <c r="E3">
-        <v>98.95035773901974</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F3">
-        <v>98.98936596527541</v>
+        <v>98.9503577390197</v>
+      </c>
+      <c r="G3">
+        <v>98.9893659652754</v>
       </c>
     </row>
   </sheetData>
@@ -1039,82 +1033,79 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t_crit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lower 95% CI</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>1.10056946746027</v>
       </c>
-      <c r="C2">
-        <v>0.01060948591732333</v>
-      </c>
       <c r="D2">
-        <v>3.182446305283708</v>
+        <v>0.0106094859173233</v>
       </c>
       <c r="E2">
-        <v>1.066805348201724</v>
+        <v>3.18244630528371</v>
       </c>
       <c r="F2">
-        <v>1.134333586718815</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
+        <v>1.06680534820172</v>
+      </c>
+      <c r="G2">
+        <v>1.13433358671881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>98.97028643245096</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.007070212270446378</v>
+        <v>98.970286432451</v>
       </c>
       <c r="D3">
-        <v>3.182446305283708</v>
+        <v>0.00707021227044638</v>
       </c>
       <c r="E3">
+        <v>3.18244630528371</v>
+      </c>
+      <c r="F3">
         <v>98.9477858615333</v>
       </c>
-      <c r="F3">
-        <v>98.99278700336862</v>
+      <c r="G3">
+        <v>98.9927870033686</v>
       </c>
     </row>
   </sheetData>
